--- a/BLACK_SUNRISE_YCbCr/45_Degree_GLCM/G_resmat.xlsx
+++ b/BLACK_SUNRISE_YCbCr/45_Degree_GLCM/G_resmat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4TH YEAR\Project_1\MATRICES_WORKSPACES\BLACK_SUNRISE_YCbCr\45_Degree_GLCM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CF0CE2-8C97-41F0-9356-AABD2363B9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +336,5621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B366" sqref="B366"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>5.1176465788521738E-2</v>
+      </c>
+      <c r="B1">
+        <v>0.84442098145341027</v>
+      </c>
+      <c r="C1">
+        <v>0.6377127585208846</v>
+      </c>
+      <c r="D1">
+        <v>0.97441176710573918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.0526315789473684E-2</v>
+      </c>
+      <c r="B2">
+        <v>0.88334173890334566</v>
+      </c>
+      <c r="C2">
+        <v>0.8994101585473645</v>
+      </c>
+      <c r="D2">
+        <v>0.99473684210526314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.4600958752568087E-2</v>
+      </c>
+      <c r="B3">
+        <v>0.83684433262520075</v>
+      </c>
+      <c r="C3">
+        <v>0.82860284578312748</v>
+      </c>
+      <c r="D3">
+        <v>0.98769952062371591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.3876302588288281E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.82055897053055493</v>
+      </c>
+      <c r="C4">
+        <v>0.84881887479622375</v>
+      </c>
+      <c r="D4">
+        <v>0.98806184870585589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.8697759449003019E-2</v>
+      </c>
+      <c r="B5">
+        <v>0.86839359886076006</v>
+      </c>
+      <c r="C5">
+        <v>0.76779390199231523</v>
+      </c>
+      <c r="D5">
+        <v>0.98565445480092462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3.4749431640246804E-2</v>
+      </c>
+      <c r="B6">
+        <v>0.82584456444053866</v>
+      </c>
+      <c r="C6">
+        <v>0.77933843010901682</v>
+      </c>
+      <c r="D6">
+        <v>0.9826252841798766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.0776840908827317E-2</v>
+      </c>
+      <c r="B7">
+        <v>0.88483800109536337</v>
+      </c>
+      <c r="C7">
+        <v>0.80466205471024077</v>
+      </c>
+      <c r="D7">
+        <v>0.98961157954558632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1.3806491902092018E-2</v>
+      </c>
+      <c r="B8">
+        <v>0.89029363972556297</v>
+      </c>
+      <c r="C8">
+        <v>0.86410053598866443</v>
+      </c>
+      <c r="D8">
+        <v>0.99309675404895392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4.1257824688190156E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.79593629763201623</v>
+      </c>
+      <c r="C9">
+        <v>0.76970156064624906</v>
+      </c>
+      <c r="D9">
+        <v>0.97937108765590486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3.7203174160605097E-2</v>
+      </c>
+      <c r="B10">
+        <v>0.84943806252942045</v>
+      </c>
+      <c r="C10">
+        <v>0.72941558852313737</v>
+      </c>
+      <c r="D10">
+        <v>0.98139841291969754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2.6006422893789748E-2</v>
+      </c>
+      <c r="B11">
+        <v>0.82331510301085942</v>
+      </c>
+      <c r="C11">
+        <v>0.83297209001803718</v>
+      </c>
+      <c r="D11">
+        <v>0.98699678855310502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3.1882631887635265E-2</v>
+      </c>
+      <c r="B12">
+        <v>0.8243995874516038</v>
+      </c>
+      <c r="C12">
+        <v>0.79392167485301923</v>
+      </c>
+      <c r="D12">
+        <v>0.98405868405618235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.3713076108919465E-2</v>
+      </c>
+      <c r="B13">
+        <v>0.87156903837903843</v>
+      </c>
+      <c r="C13">
+        <v>0.88154396222305431</v>
+      </c>
+      <c r="D13">
+        <v>0.99314346194554037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1.8657066076605215E-2</v>
+      </c>
+      <c r="B14">
+        <v>0.84782770544240826</v>
+      </c>
+      <c r="C14">
+        <v>0.86229183176987301</v>
+      </c>
+      <c r="D14">
+        <v>0.99067146696169728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2.2516674269395732E-2</v>
+      </c>
+      <c r="B15">
+        <v>0.81527603222290657</v>
+      </c>
+      <c r="C15">
+        <v>0.86176573985808325</v>
+      </c>
+      <c r="D15">
+        <v>0.98874166286530218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1.4319608625359567E-2</v>
+      </c>
+      <c r="B16">
+        <v>0.87881974092092574</v>
+      </c>
+      <c r="C16">
+        <v>0.86976979358693218</v>
+      </c>
+      <c r="D16">
+        <v>0.99284019568732018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1.1350042494507787E-2</v>
+      </c>
+      <c r="B17">
+        <v>0.85158738320046368</v>
+      </c>
+      <c r="C17">
+        <v>0.91334863447938885</v>
+      </c>
+      <c r="D17">
+        <v>0.99432497875274617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1.5053465261325956E-2</v>
+      </c>
+      <c r="B18">
+        <v>0.86584480384125417</v>
+      </c>
+      <c r="C18">
+        <v>0.87630193455891581</v>
+      </c>
+      <c r="D18">
+        <v>0.99247326736933694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2.0946141246748241E-2</v>
+      </c>
+      <c r="B19">
+        <v>0.81531741126387969</v>
+      </c>
+      <c r="C19">
+        <v>0.87101849322537683</v>
+      </c>
+      <c r="D19">
+        <v>0.9895269293766259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1.2849070864673545E-2</v>
+      </c>
+      <c r="B20">
+        <v>0.88895884191896712</v>
+      </c>
+      <c r="C20">
+        <v>0.87274566437071932</v>
+      </c>
+      <c r="D20">
+        <v>0.9935754645676631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.6328407419579026E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.84845022303239137</v>
+      </c>
+      <c r="C21">
+        <v>0.80451338915971149</v>
+      </c>
+      <c r="D21">
+        <v>0.98683579629021057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4.9600139841803961E-2</v>
+      </c>
+      <c r="B22">
+        <v>0.83020804975488982</v>
+      </c>
+      <c r="C22">
+        <v>0.66651264399010957</v>
+      </c>
+      <c r="D22">
+        <v>0.97519993007909811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2.007833885722711E-2</v>
+      </c>
+      <c r="B23">
+        <v>0.87994320904061163</v>
+      </c>
+      <c r="C23">
+        <v>0.81707283185787016</v>
+      </c>
+      <c r="D23">
+        <v>0.9899608305713864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3.6688849933767476E-2</v>
+      </c>
+      <c r="B24">
+        <v>0.90227590952971692</v>
+      </c>
+      <c r="C24">
+        <v>0.59642525156835757</v>
+      </c>
+      <c r="D24">
+        <v>0.98165557503311629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3.4839964483531355E-3</v>
+      </c>
+      <c r="B25">
+        <v>0.91297007230202887</v>
+      </c>
+      <c r="C25">
+        <v>0.95653468493198113</v>
+      </c>
+      <c r="D25">
+        <v>0.99825800177582336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2.2200105744409542E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.85265660770449092</v>
+      </c>
+      <c r="C26">
+        <v>0.83304761107502501</v>
+      </c>
+      <c r="D26">
+        <v>0.98889994712779516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2.0218238803861251E-2</v>
+      </c>
+      <c r="B27">
+        <v>0.8951941510185486</v>
+      </c>
+      <c r="C27">
+        <v>0.78980081972746763</v>
+      </c>
+      <c r="D27">
+        <v>0.98989088059806951</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1.149806364948483E-2</v>
+      </c>
+      <c r="B28">
+        <v>0.92817474420324353</v>
+      </c>
+      <c r="C28">
+        <v>0.83292865626406343</v>
+      </c>
+      <c r="D28">
+        <v>0.99425096817525749</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2.9974526440788341E-2</v>
+      </c>
+      <c r="B29">
+        <v>0.88029935601104037</v>
+      </c>
+      <c r="C29">
+        <v>0.72976755553990102</v>
+      </c>
+      <c r="D29">
+        <v>0.98501273677960577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3.8084715320287593E-2</v>
+      </c>
+      <c r="B30">
+        <v>0.86356702107504302</v>
+      </c>
+      <c r="C30">
+        <v>0.69566995323723069</v>
+      </c>
+      <c r="D30">
+        <v>0.98096462427584241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2.0763507829899625E-2</v>
+      </c>
+      <c r="B31">
+        <v>0.89528182400703216</v>
+      </c>
+      <c r="C31">
+        <v>0.79447975606134136</v>
+      </c>
+      <c r="D31">
+        <v>0.98961824608505033</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4.8221381302195818E-2</v>
+      </c>
+      <c r="B32">
+        <v>0.84270345007391101</v>
+      </c>
+      <c r="C32">
+        <v>0.66009673212402142</v>
+      </c>
+      <c r="D32">
+        <v>0.97588930934890206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2.5469329719401926E-2</v>
+      </c>
+      <c r="B33">
+        <v>0.84706685444144336</v>
+      </c>
+      <c r="C33">
+        <v>0.81214295514326462</v>
+      </c>
+      <c r="D33">
+        <v>0.98726533514029913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4.4039359538966148E-3</v>
+      </c>
+      <c r="B34">
+        <v>0.8889872356995755</v>
+      </c>
+      <c r="C34">
+        <v>0.95647078471514391</v>
+      </c>
+      <c r="D34">
+        <v>0.99779803202305173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1.366929688187498E-2</v>
+      </c>
+      <c r="B35">
+        <v>0.84280657464469111</v>
+      </c>
+      <c r="C35">
+        <v>0.90101198880019484</v>
+      </c>
+      <c r="D35">
+        <v>0.9931653515590626</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1.4083474307741459E-2</v>
+      </c>
+      <c r="B36">
+        <v>0.88881737004027139</v>
+      </c>
+      <c r="C36">
+        <v>0.86202345614740117</v>
+      </c>
+      <c r="D36">
+        <v>0.99295826284612931</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1.6154979041576978E-2</v>
+      </c>
+      <c r="B37">
+        <v>0.89736000366363644</v>
+      </c>
+      <c r="C37">
+        <v>0.82898849413962561</v>
+      </c>
+      <c r="D37">
+        <v>0.99192251047921143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3.2068340899434215E-2</v>
+      </c>
+      <c r="B38">
+        <v>0.85465905531530872</v>
+      </c>
+      <c r="C38">
+        <v>0.76880044369490097</v>
+      </c>
+      <c r="D38">
+        <v>0.98396582955028289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2.7490954311833151E-2</v>
+      </c>
+      <c r="B39">
+        <v>0.84464142047136337</v>
+      </c>
+      <c r="C39">
+        <v>0.80193915405059524</v>
+      </c>
+      <c r="D39">
+        <v>0.98625452284408344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4.0557429954525444E-2</v>
+      </c>
+      <c r="B40">
+        <v>0.84172929413634112</v>
+      </c>
+      <c r="C40">
+        <v>0.73039348990947983</v>
+      </c>
+      <c r="D40">
+        <v>0.97972128502273725</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>6.5480858196724723E-2</v>
+      </c>
+      <c r="B41">
+        <v>0.85992560332673929</v>
+      </c>
+      <c r="C41">
+        <v>0.51111500323601955</v>
+      </c>
+      <c r="D41">
+        <v>0.96725957090163761</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>6.5206666055422399E-2</v>
+      </c>
+      <c r="B42">
+        <v>0.81021201630437212</v>
+      </c>
+      <c r="C42">
+        <v>0.63642788612572321</v>
+      </c>
+      <c r="D42">
+        <v>0.96739666697228877</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>6.8023391812865486E-2</v>
+      </c>
+      <c r="B43">
+        <v>0.85695669572520194</v>
+      </c>
+      <c r="C43">
+        <v>0.51041593382777106</v>
+      </c>
+      <c r="D43">
+        <v>0.96598830409356728</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4.1839450607794627E-2</v>
+      </c>
+      <c r="B44">
+        <v>0.86121082509949787</v>
+      </c>
+      <c r="C44">
+        <v>0.69878698644120607</v>
+      </c>
+      <c r="D44">
+        <v>0.9790802746961027</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4.6508145103016554E-2</v>
+      </c>
+      <c r="B45">
+        <v>0.85884979244207926</v>
+      </c>
+      <c r="C45">
+        <v>0.67611464150090816</v>
+      </c>
+      <c r="D45">
+        <v>0.97674592744849176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3.6329387553575059E-2</v>
+      </c>
+      <c r="B46">
+        <v>0.860891665934016</v>
+      </c>
+      <c r="C46">
+        <v>0.73462131243711948</v>
+      </c>
+      <c r="D46">
+        <v>0.98183530622321247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4.4709982574060253E-2</v>
+      </c>
+      <c r="B47">
+        <v>0.85154706627642418</v>
+      </c>
+      <c r="C47">
+        <v>0.69390914705159568</v>
+      </c>
+      <c r="D47">
+        <v>0.97764500871296989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>4.3366745852405512E-2</v>
+      </c>
+      <c r="B48">
+        <v>0.86386184391009579</v>
+      </c>
+      <c r="C48">
+        <v>0.68579407445310192</v>
+      </c>
+      <c r="D48">
+        <v>0.97831662707379718</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4.7955603323895826E-2</v>
+      </c>
+      <c r="B49">
+        <v>0.85898035626427938</v>
+      </c>
+      <c r="C49">
+        <v>0.66338322801661287</v>
+      </c>
+      <c r="D49">
+        <v>0.97602219833805204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3.8359118147912513E-2</v>
+      </c>
+      <c r="B50">
+        <v>0.86225173306517067</v>
+      </c>
+      <c r="C50">
+        <v>0.71850398966647178</v>
+      </c>
+      <c r="D50">
+        <v>0.9808204409260437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3.6752384822275115E-2</v>
+      </c>
+      <c r="B51">
+        <v>0.85164903319955343</v>
+      </c>
+      <c r="C51">
+        <v>0.74785294687192916</v>
+      </c>
+      <c r="D51">
+        <v>0.98162380758886247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>4.1161609525918866E-2</v>
+      </c>
+      <c r="B52">
+        <v>0.84619273394432037</v>
+      </c>
+      <c r="C52">
+        <v>0.72115189221809839</v>
+      </c>
+      <c r="D52">
+        <v>0.97941919523704069</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3.6824911643901038E-2</v>
+      </c>
+      <c r="B53">
+        <v>0.85040553122626183</v>
+      </c>
+      <c r="C53">
+        <v>0.74484515273869467</v>
+      </c>
+      <c r="D53">
+        <v>0.98158754417804961</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>5.4940695033799482E-2</v>
+      </c>
+      <c r="B54">
+        <v>0.87952625001199802</v>
+      </c>
+      <c r="C54">
+        <v>0.53523074888217959</v>
+      </c>
+      <c r="D54">
+        <v>0.97252965248310019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4.8461100635384037E-2</v>
+      </c>
+      <c r="B55">
+        <v>0.88103127338032827</v>
+      </c>
+      <c r="C55">
+        <v>0.57524448710932252</v>
+      </c>
+      <c r="D55">
+        <v>0.97576944968230783</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>5.5457983084983779E-2</v>
+      </c>
+      <c r="B56">
+        <v>0.8704940470895991</v>
+      </c>
+      <c r="C56">
+        <v>0.5578470691240196</v>
+      </c>
+      <c r="D56">
+        <v>0.97227100845750813</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3.4332078791729802E-2</v>
+      </c>
+      <c r="B57">
+        <v>0.85193222752173281</v>
+      </c>
+      <c r="C57">
+        <v>0.75796662640857815</v>
+      </c>
+      <c r="D57">
+        <v>0.98283396060413519</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3.6104275197886372E-2</v>
+      </c>
+      <c r="B58">
+        <v>0.8390979200681169</v>
+      </c>
+      <c r="C58">
+        <v>0.76320208521847543</v>
+      </c>
+      <c r="D58">
+        <v>0.9819478624010568</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3.3152647534833331E-2</v>
+      </c>
+      <c r="B59">
+        <v>0.84607137498584806</v>
+      </c>
+      <c r="C59">
+        <v>0.77311115327803082</v>
+      </c>
+      <c r="D59">
+        <v>0.98342367623258331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3.9213939993902797E-2</v>
+      </c>
+      <c r="B60">
+        <v>0.84125177095731618</v>
+      </c>
+      <c r="C60">
+        <v>0.74234479980423029</v>
+      </c>
+      <c r="D60">
+        <v>0.98039303000304856</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2.4112147684844969E-2</v>
+      </c>
+      <c r="B61">
+        <v>0.86850338486497536</v>
+      </c>
+      <c r="C61">
+        <v>0.79311020004256272</v>
+      </c>
+      <c r="D61">
+        <v>0.98794392615757765</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1.5994077105015526E-2</v>
+      </c>
+      <c r="B62">
+        <v>0.8903028273850756</v>
+      </c>
+      <c r="C62">
+        <v>0.83846598727890598</v>
+      </c>
+      <c r="D62">
+        <v>0.99200296144749234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2.4850161494965821E-2</v>
+      </c>
+      <c r="B63">
+        <v>0.85416802563578975</v>
+      </c>
+      <c r="C63">
+        <v>0.80539269677713055</v>
+      </c>
+      <c r="D63">
+        <v>0.98757491925251706</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>4.7714390537323709E-2</v>
+      </c>
+      <c r="B64">
+        <v>0.81958730758189458</v>
+      </c>
+      <c r="C64">
+        <v>0.69061021315172832</v>
+      </c>
+      <c r="D64">
+        <v>0.97614280473133819</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3.0715490585949613E-2</v>
+      </c>
+      <c r="B65">
+        <v>0.85124917618417328</v>
+      </c>
+      <c r="C65">
+        <v>0.76520262946867568</v>
+      </c>
+      <c r="D65">
+        <v>0.98464225470702527</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2.5782195639759663E-2</v>
+      </c>
+      <c r="B66">
+        <v>0.87793034511208112</v>
+      </c>
+      <c r="C66">
+        <v>0.76386152142153552</v>
+      </c>
+      <c r="D66">
+        <v>0.98710890218012015</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>3.5334156615832939E-2</v>
+      </c>
+      <c r="B67">
+        <v>0.8522249954471034</v>
+      </c>
+      <c r="C67">
+        <v>0.72806862443689446</v>
+      </c>
+      <c r="D67">
+        <v>0.98233292169208342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2.2315659484018677E-2</v>
+      </c>
+      <c r="B68">
+        <v>0.88943927151879576</v>
+      </c>
+      <c r="C68">
+        <v>0.77634482643524727</v>
+      </c>
+      <c r="D68">
+        <v>0.9888421702579907</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2.5349574861885542E-2</v>
+      </c>
+      <c r="B69">
+        <v>0.88087286195763503</v>
+      </c>
+      <c r="C69">
+        <v>0.76389981381557603</v>
+      </c>
+      <c r="D69">
+        <v>0.98732521256905725</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2.1435941510765076E-2</v>
+      </c>
+      <c r="B70">
+        <v>0.88646705384008107</v>
+      </c>
+      <c r="C70">
+        <v>0.79161201590330665</v>
+      </c>
+      <c r="D70">
+        <v>0.98928202924461728</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>3.9341077535161598E-2</v>
+      </c>
+      <c r="B71">
+        <v>0.85729507290247275</v>
+      </c>
+      <c r="C71">
+        <v>0.68753243019384769</v>
+      </c>
+      <c r="D71">
+        <v>0.98032946123241926</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4.3090811454115328E-2</v>
+      </c>
+      <c r="B72">
+        <v>0.83470271426713361</v>
+      </c>
+      <c r="C72">
+        <v>0.69858301644160492</v>
+      </c>
+      <c r="D72">
+        <v>0.97845459427294235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>4.1816734181448788E-2</v>
+      </c>
+      <c r="B73">
+        <v>0.8392275699011652</v>
+      </c>
+      <c r="C73">
+        <v>0.70120976244341227</v>
+      </c>
+      <c r="D73">
+        <v>0.9790916329092757</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2.5544512043836641E-2</v>
+      </c>
+      <c r="B74">
+        <v>0.87237811081454686</v>
+      </c>
+      <c r="C74">
+        <v>0.77731685671967377</v>
+      </c>
+      <c r="D74">
+        <v>0.98722774397808166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2.8577066000197306E-2</v>
+      </c>
+      <c r="B75">
+        <v>0.85204106710434269</v>
+      </c>
+      <c r="C75">
+        <v>0.77967872494009216</v>
+      </c>
+      <c r="D75">
+        <v>0.98571146699990142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>4.2310570734459367E-2</v>
+      </c>
+      <c r="B76">
+        <v>0.84169224053943381</v>
+      </c>
+      <c r="C76">
+        <v>0.69409366505678605</v>
+      </c>
+      <c r="D76">
+        <v>0.97884471463277023</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>3.5938328980415289E-2</v>
+      </c>
+      <c r="B77">
+        <v>0.85632038016829792</v>
+      </c>
+      <c r="C77">
+        <v>0.71541865249471215</v>
+      </c>
+      <c r="D77">
+        <v>0.98203083550979231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1.9110615273556751E-2</v>
+      </c>
+      <c r="B78">
+        <v>0.88209556070713468</v>
+      </c>
+      <c r="C78">
+        <v>0.81920319659170771</v>
+      </c>
+      <c r="D78">
+        <v>0.99044469236322152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2.2497510374506237E-2</v>
+      </c>
+      <c r="B79">
+        <v>0.842408367467681</v>
+      </c>
+      <c r="C79">
+        <v>0.83546548035425838</v>
+      </c>
+      <c r="D79">
+        <v>0.98875124481274701</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1.3715167955054734E-2</v>
+      </c>
+      <c r="B80">
+        <v>0.90147346941775486</v>
+      </c>
+      <c r="C80">
+        <v>0.84842055008413308</v>
+      </c>
+      <c r="D80">
+        <v>0.99314241602247255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2.4112147684844969E-2</v>
+      </c>
+      <c r="B81">
+        <v>0.86850338486497536</v>
+      </c>
+      <c r="C81">
+        <v>0.79311020004256272</v>
+      </c>
+      <c r="D81">
+        <v>0.98794392615757765</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1.5994077105015526E-2</v>
+      </c>
+      <c r="B82">
+        <v>0.8903028273850756</v>
+      </c>
+      <c r="C82">
+        <v>0.83846598727890598</v>
+      </c>
+      <c r="D82">
+        <v>0.99200296144749234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2.4850161494965821E-2</v>
+      </c>
+      <c r="B83">
+        <v>0.85416802563578975</v>
+      </c>
+      <c r="C83">
+        <v>0.80539269677713055</v>
+      </c>
+      <c r="D83">
+        <v>0.98757491925251706</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>4.7714390537323709E-2</v>
+      </c>
+      <c r="B84">
+        <v>0.81958730758189458</v>
+      </c>
+      <c r="C84">
+        <v>0.69061021315172832</v>
+      </c>
+      <c r="D84">
+        <v>0.97614280473133819</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>3.0715490585949613E-2</v>
+      </c>
+      <c r="B85">
+        <v>0.85124917618417328</v>
+      </c>
+      <c r="C85">
+        <v>0.76520262946867568</v>
+      </c>
+      <c r="D85">
+        <v>0.98464225470702527</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2.5782195639759663E-2</v>
+      </c>
+      <c r="B86">
+        <v>0.87793034511208112</v>
+      </c>
+      <c r="C86">
+        <v>0.76386152142153552</v>
+      </c>
+      <c r="D86">
+        <v>0.98710890218012015</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>3.5334156615832939E-2</v>
+      </c>
+      <c r="B87">
+        <v>0.8522249954471034</v>
+      </c>
+      <c r="C87">
+        <v>0.72806862443689446</v>
+      </c>
+      <c r="D87">
+        <v>0.98233292169208342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2.2315659484018677E-2</v>
+      </c>
+      <c r="B88">
+        <v>0.88943927151879576</v>
+      </c>
+      <c r="C88">
+        <v>0.77634482643524727</v>
+      </c>
+      <c r="D88">
+        <v>0.9888421702579907</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2.5349574861885542E-2</v>
+      </c>
+      <c r="B89">
+        <v>0.88087286195763503</v>
+      </c>
+      <c r="C89">
+        <v>0.76389981381557603</v>
+      </c>
+      <c r="D89">
+        <v>0.98732521256905725</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2.1435941510765076E-2</v>
+      </c>
+      <c r="B90">
+        <v>0.88646705384008107</v>
+      </c>
+      <c r="C90">
+        <v>0.79161201590330665</v>
+      </c>
+      <c r="D90">
+        <v>0.98928202924461728</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>3.9341077535161598E-2</v>
+      </c>
+      <c r="B91">
+        <v>0.85729507290247275</v>
+      </c>
+      <c r="C91">
+        <v>0.68753243019384769</v>
+      </c>
+      <c r="D91">
+        <v>0.98032946123241926</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>4.3090811454115328E-2</v>
+      </c>
+      <c r="B92">
+        <v>0.83470271426713361</v>
+      </c>
+      <c r="C92">
+        <v>0.69858301644160492</v>
+      </c>
+      <c r="D92">
+        <v>0.97845459427294235</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>4.1816734181448788E-2</v>
+      </c>
+      <c r="B93">
+        <v>0.8392275699011652</v>
+      </c>
+      <c r="C93">
+        <v>0.70120976244341227</v>
+      </c>
+      <c r="D93">
+        <v>0.9790916329092757</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2.5544512043836641E-2</v>
+      </c>
+      <c r="B94">
+        <v>0.87237811081454686</v>
+      </c>
+      <c r="C94">
+        <v>0.77731685671967377</v>
+      </c>
+      <c r="D94">
+        <v>0.98722774397808166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2.8577066000197306E-2</v>
+      </c>
+      <c r="B95">
+        <v>0.85204106710434269</v>
+      </c>
+      <c r="C95">
+        <v>0.77967872494009216</v>
+      </c>
+      <c r="D95">
+        <v>0.98571146699990142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>4.2310570734459367E-2</v>
+      </c>
+      <c r="B96">
+        <v>0.84169224053943381</v>
+      </c>
+      <c r="C96">
+        <v>0.69409366505678605</v>
+      </c>
+      <c r="D96">
+        <v>0.97884471463277023</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>3.5938328980415289E-2</v>
+      </c>
+      <c r="B97">
+        <v>0.85632038016829792</v>
+      </c>
+      <c r="C97">
+        <v>0.71541865249471215</v>
+      </c>
+      <c r="D97">
+        <v>0.98203083550979231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1.9110615273556751E-2</v>
+      </c>
+      <c r="B98">
+        <v>0.88209556070713468</v>
+      </c>
+      <c r="C98">
+        <v>0.81920319659170771</v>
+      </c>
+      <c r="D98">
+        <v>0.99044469236322152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2.2497510374506237E-2</v>
+      </c>
+      <c r="B99">
+        <v>0.842408367467681</v>
+      </c>
+      <c r="C99">
+        <v>0.83546548035425838</v>
+      </c>
+      <c r="D99">
+        <v>0.98875124481274701</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1.3715167955054734E-2</v>
+      </c>
+      <c r="B100">
+        <v>0.90147346941775486</v>
+      </c>
+      <c r="C100">
+        <v>0.84842055008413308</v>
+      </c>
+      <c r="D100">
+        <v>0.99314241602247255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1.7319892012216918E-3</v>
+      </c>
+      <c r="B101">
+        <v>0.75849860482184606</v>
+      </c>
+      <c r="C101">
+        <v>0.99156300645077133</v>
+      </c>
+      <c r="D101">
+        <v>0.99913400539938912</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2.415283948730048E-2</v>
+      </c>
+      <c r="B102">
+        <v>0.71564755688599146</v>
+      </c>
+      <c r="C102">
+        <v>0.89238196422340876</v>
+      </c>
+      <c r="D102">
+        <v>0.98792358025634963</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2.0411657215531308E-2</v>
+      </c>
+      <c r="B103">
+        <v>0.86973228657874135</v>
+      </c>
+      <c r="C103">
+        <v>0.82364852432176627</v>
+      </c>
+      <c r="D103">
+        <v>0.98979417139223425</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>6.4946849382773245E-3</v>
+      </c>
+      <c r="B104">
+        <v>0.71133564662666982</v>
+      </c>
+      <c r="C104">
+        <v>0.9710608688528537</v>
+      </c>
+      <c r="D104">
+        <v>0.99675265753086129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>3.5375763440188948E-4</v>
+      </c>
+      <c r="B105">
+        <v>0.89763097830382688</v>
+      </c>
+      <c r="C105">
+        <v>0.99641225325965022</v>
+      </c>
+      <c r="D105">
+        <v>0.99982312118279904</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2.9044553813842356E-3</v>
+      </c>
+      <c r="B106">
+        <v>0.72684078067554747</v>
+      </c>
+      <c r="C106">
+        <v>0.98727282490973578</v>
+      </c>
+      <c r="D106">
+        <v>0.9985477723093078</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1.6827181268125023E-3</v>
+      </c>
+      <c r="B107">
+        <v>0.78517675554871569</v>
+      </c>
+      <c r="C107">
+        <v>0.99070281521115588</v>
+      </c>
+      <c r="D107">
+        <v>0.99915864093659379</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>5.0793650793650791E-4</v>
+      </c>
+      <c r="B108">
+        <v>0.87998220594945398</v>
+      </c>
+      <c r="C108">
+        <v>0.99567892141030601</v>
+      </c>
+      <c r="D108">
+        <v>0.99974603174603172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>5.9924187656167115E-4</v>
+      </c>
+      <c r="B109">
+        <v>0.82842195492155779</v>
+      </c>
+      <c r="C109">
+        <v>0.99618437790203407</v>
+      </c>
+      <c r="D109">
+        <v>0.99970037906171927</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2.3172873255245579E-4</v>
+      </c>
+      <c r="B110">
+        <v>0.93091842340877073</v>
+      </c>
+      <c r="C110">
+        <v>0.99641390336749469</v>
+      </c>
+      <c r="D110">
+        <v>0.9998841356337238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2.4340801649089312E-4</v>
+      </c>
+      <c r="B111">
+        <v>0.92086576256087072</v>
+      </c>
+      <c r="C111">
+        <v>0.99668076367120173</v>
+      </c>
+      <c r="D111">
+        <v>0.9998782959917546</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>7.1715570923177891E-4</v>
+      </c>
+      <c r="B112">
+        <v>0.81573849381658781</v>
+      </c>
+      <c r="C112">
+        <v>0.9954424455824491</v>
+      </c>
+      <c r="D112">
+        <v>0.9996414221453841</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2.2262650577263571E-4</v>
+      </c>
+      <c r="B113">
+        <v>0.91479258652495532</v>
+      </c>
+      <c r="C113">
+        <v>0.99738006881265484</v>
+      </c>
+      <c r="D113">
+        <v>0.99988868674711384</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>9.3068025714822993E-4</v>
+      </c>
+      <c r="B114">
+        <v>0.82821895509960863</v>
+      </c>
+      <c r="C114">
+        <v>0.99413558523158008</v>
+      </c>
+      <c r="D114">
+        <v>0.99953465987142587</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2.6916288631574745E-3</v>
+      </c>
+      <c r="B115">
+        <v>0.75437760874953119</v>
+      </c>
+      <c r="C115">
+        <v>0.98661809888699403</v>
+      </c>
+      <c r="D115">
+        <v>0.99865418556842123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>5.6235844480081077E-4</v>
+      </c>
+      <c r="B116">
+        <v>0.85619572976962233</v>
+      </c>
+      <c r="C116">
+        <v>0.99566306147544725</v>
+      </c>
+      <c r="D116">
+        <v>0.99971882077759966</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>4.3070894085031652E-4</v>
+      </c>
+      <c r="B117">
+        <v>0.86138777397090227</v>
+      </c>
+      <c r="C117">
+        <v>0.99653485963673916</v>
+      </c>
+      <c r="D117">
+        <v>0.9997846455295748</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1.6523087790420909E-3</v>
+      </c>
+      <c r="B118">
+        <v>0.7652122715903078</v>
+      </c>
+      <c r="C118">
+        <v>0.99199423329767067</v>
+      </c>
+      <c r="D118">
+        <v>0.99917384561047895</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1.2206511587498099E-3</v>
+      </c>
+      <c r="B119">
+        <v>0.80970627038877685</v>
+      </c>
+      <c r="C119">
+        <v>0.99279956192644159</v>
+      </c>
+      <c r="D119">
+        <v>0.99938967442062498</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1.8732087667619577E-3</v>
+      </c>
+      <c r="B120">
+        <v>0.73572893879497236</v>
+      </c>
+      <c r="C120">
+        <v>0.99144401117621728</v>
+      </c>
+      <c r="D120">
+        <v>0.99906339561661905</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2.9084100483694805E-3</v>
+      </c>
+      <c r="B121">
+        <v>0.92539372905641459</v>
+      </c>
+      <c r="C121">
+        <v>0.97934449095065235</v>
+      </c>
+      <c r="D121">
+        <v>0.99854579497581519</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1.1775619469557325E-2</v>
+      </c>
+      <c r="B122">
+        <v>0.72902804186848613</v>
+      </c>
+      <c r="C122">
+        <v>0.9449072072537642</v>
+      </c>
+      <c r="D122">
+        <v>0.99411219026522135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>1.202664559105792E-2</v>
+      </c>
+      <c r="B123">
+        <v>0.80064190535078217</v>
+      </c>
+      <c r="C123">
+        <v>0.92779158309128829</v>
+      </c>
+      <c r="D123">
+        <v>0.99398667720447098</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>4.7418505210039073E-3</v>
+      </c>
+      <c r="B124">
+        <v>0.6519841694247116</v>
+      </c>
+      <c r="C124">
+        <v>0.98165658298326852</v>
+      </c>
+      <c r="D124">
+        <v>0.99762907473949802</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>5.1732233957038371E-4</v>
+      </c>
+      <c r="B125">
+        <v>0.81758360507610661</v>
+      </c>
+      <c r="C125">
+        <v>0.99666156995561861</v>
+      </c>
+      <c r="D125">
+        <v>0.99974133883021477</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>7.2783782986298947E-4</v>
+      </c>
+      <c r="B126">
+        <v>0.82095136027862237</v>
+      </c>
+      <c r="C126">
+        <v>0.99552252096926008</v>
+      </c>
+      <c r="D126">
+        <v>0.99963608108506852</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>4.8267709196862605E-3</v>
+      </c>
+      <c r="B127">
+        <v>0.74530057838330399</v>
+      </c>
+      <c r="C127">
+        <v>0.97649899314713939</v>
+      </c>
+      <c r="D127">
+        <v>0.99758661454015696</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1.0488510313701809E-3</v>
+      </c>
+      <c r="B128">
+        <v>0.71938182744500712</v>
+      </c>
+      <c r="C128">
+        <v>0.9952150885785036</v>
+      </c>
+      <c r="D128">
+        <v>0.9994755744843149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>3.0840796502049402E-3</v>
+      </c>
+      <c r="B129">
+        <v>0.88680959578835294</v>
+      </c>
+      <c r="C129">
+        <v>0.98131587263195375</v>
+      </c>
+      <c r="D129">
+        <v>0.99845796017489741</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2.4424822783235913E-3</v>
+      </c>
+      <c r="B130">
+        <v>0.93188079983203831</v>
+      </c>
+      <c r="C130">
+        <v>0.98122366371908687</v>
+      </c>
+      <c r="D130">
+        <v>0.99877875886083811</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>6.6432536535629329E-3</v>
+      </c>
+      <c r="B131">
+        <v>0.77247245115465069</v>
+      </c>
+      <c r="C131">
+        <v>0.96499271047900881</v>
+      </c>
+      <c r="D131">
+        <v>0.99667837317321861</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>1.0492326562580815E-3</v>
+      </c>
+      <c r="B132">
+        <v>0.92314057534537741</v>
+      </c>
+      <c r="C132">
+        <v>0.99104352924288708</v>
+      </c>
+      <c r="D132">
+        <v>0.99947538367187105</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1.8828673177955643E-3</v>
+      </c>
+      <c r="B133">
+        <v>0.92455942234828514</v>
+      </c>
+      <c r="C133">
+        <v>0.98520904340656512</v>
+      </c>
+      <c r="D133">
+        <v>0.99905856634110235</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>4.2386087390139003E-4</v>
+      </c>
+      <c r="B134">
+        <v>0.80877659820613979</v>
+      </c>
+      <c r="C134">
+        <v>0.99735974450544118</v>
+      </c>
+      <c r="D134">
+        <v>0.99978806956304944</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>4.1097647340920885E-3</v>
+      </c>
+      <c r="B135">
+        <v>0.671418523721798</v>
+      </c>
+      <c r="C135">
+        <v>0.98348853470935294</v>
+      </c>
+      <c r="D135">
+        <v>0.9979451176329539</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>1.0111110651995157E-2</v>
+      </c>
+      <c r="B136">
+        <v>0.79089539966904998</v>
+      </c>
+      <c r="C136">
+        <v>0.94163987883933187</v>
+      </c>
+      <c r="D136">
+        <v>0.99494444467400234</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>6.9964126237233261E-4</v>
+      </c>
+      <c r="B137">
+        <v>0.82897770885712774</v>
+      </c>
+      <c r="C137">
+        <v>0.99522111400059055</v>
+      </c>
+      <c r="D137">
+        <v>0.99965017936881384</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>3.8660223296117313E-4</v>
+      </c>
+      <c r="B138">
+        <v>0.80964964259688532</v>
+      </c>
+      <c r="C138">
+        <v>0.99758927448658019</v>
+      </c>
+      <c r="D138">
+        <v>0.99980669888351947</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>1.8093755192723111E-3</v>
+      </c>
+      <c r="B139">
+        <v>0.73892298616132512</v>
+      </c>
+      <c r="C139">
+        <v>0.99127593112552426</v>
+      </c>
+      <c r="D139">
+        <v>0.99909531224036385</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>9.828741623231572E-4</v>
+      </c>
+      <c r="B140">
+        <v>0.7896394863833599</v>
+      </c>
+      <c r="C140">
+        <v>0.99464927321003149</v>
+      </c>
+      <c r="D140">
+        <v>0.99950856291883849</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>5.5098272678642299E-2</v>
+      </c>
+      <c r="B141">
+        <v>0.81558304407986948</v>
+      </c>
+      <c r="C141">
+        <v>0.64916800811704811</v>
+      </c>
+      <c r="D141">
+        <v>0.9724508636606789</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>8.9105067402794308E-2</v>
+      </c>
+      <c r="B142">
+        <v>0.81696904585812846</v>
+      </c>
+      <c r="C142">
+        <v>0.43217298388029601</v>
+      </c>
+      <c r="D142">
+        <v>0.95544746629860278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>7.0722641085511628E-2</v>
+      </c>
+      <c r="B143">
+        <v>0.81060096527726955</v>
+      </c>
+      <c r="C143">
+        <v>0.5619041447055374</v>
+      </c>
+      <c r="D143">
+        <v>0.96463867945724424</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>5.0943313458118637E-2</v>
+      </c>
+      <c r="B144">
+        <v>0.83824426356435666</v>
+      </c>
+      <c r="C144">
+        <v>0.6367134382602998</v>
+      </c>
+      <c r="D144">
+        <v>0.97452834327094073</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>3.9218076779207821E-2</v>
+      </c>
+      <c r="B145">
+        <v>0.82887296059236704</v>
+      </c>
+      <c r="C145">
+        <v>0.73315289100827497</v>
+      </c>
+      <c r="D145">
+        <v>0.98039096161039607</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>7.100997730074321E-2</v>
+      </c>
+      <c r="B146">
+        <v>0.82007124602476145</v>
+      </c>
+      <c r="C146">
+        <v>0.53937648099567581</v>
+      </c>
+      <c r="D146">
+        <v>0.96449501134962845</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>8.1710777900774884E-2</v>
+      </c>
+      <c r="B147">
+        <v>0.81204464285856381</v>
+      </c>
+      <c r="C147">
+        <v>0.49030336029535121</v>
+      </c>
+      <c r="D147">
+        <v>0.95914461104961257</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>7.7122010573486582E-2</v>
+      </c>
+      <c r="B148">
+        <v>0.83385268139364066</v>
+      </c>
+      <c r="C148">
+        <v>0.46481755313420642</v>
+      </c>
+      <c r="D148">
+        <v>0.96143899471325689</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>8.1505295769427555E-2</v>
+      </c>
+      <c r="B149">
+        <v>0.83044782251495752</v>
+      </c>
+      <c r="C149">
+        <v>0.44442924185600907</v>
+      </c>
+      <c r="D149">
+        <v>0.95924735211528622</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>9.2234529210555111E-2</v>
+      </c>
+      <c r="B150">
+        <v>0.81271533756412362</v>
+      </c>
+      <c r="C150">
+        <v>0.42385061933812701</v>
+      </c>
+      <c r="D150">
+        <v>0.95388273539472235</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>7.8903222641879628E-2</v>
+      </c>
+      <c r="B151">
+        <v>0.83078286184419192</v>
+      </c>
+      <c r="C151">
+        <v>0.4610477975331615</v>
+      </c>
+      <c r="D151">
+        <v>0.96054838867906034</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>7.0479847500145451E-2</v>
+      </c>
+      <c r="B152">
+        <v>0.83034031930311392</v>
+      </c>
+      <c r="C152">
+        <v>0.5191115101541236</v>
+      </c>
+      <c r="D152">
+        <v>0.9647600762499271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>6.9355352268377246E-2</v>
+      </c>
+      <c r="B153">
+        <v>0.8295863045814077</v>
+      </c>
+      <c r="C153">
+        <v>0.52847288802092252</v>
+      </c>
+      <c r="D153">
+        <v>0.9653223238658114</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>9.0647784338032888E-2</v>
+      </c>
+      <c r="B154">
+        <v>0.81082278727267998</v>
+      </c>
+      <c r="C154">
+        <v>0.43868492010415761</v>
+      </c>
+      <c r="D154">
+        <v>0.95467610783098367</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>7.3344915687276441E-2</v>
+      </c>
+      <c r="B155">
+        <v>0.8156647159172743</v>
+      </c>
+      <c r="C155">
+        <v>0.53432148863936924</v>
+      </c>
+      <c r="D155">
+        <v>0.96332754215636174</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>7.4196108106971886E-2</v>
+      </c>
+      <c r="B156">
+        <v>0.85143119527369127</v>
+      </c>
+      <c r="C156">
+        <v>0.43190588799838447</v>
+      </c>
+      <c r="D156">
+        <v>0.96290194594651402</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>6.856070758509783E-2</v>
+      </c>
+      <c r="B157">
+        <v>0.86280956375716489</v>
+      </c>
+      <c r="C157">
+        <v>0.43639438699105976</v>
+      </c>
+      <c r="D157">
+        <v>0.9657196462074511</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>7.846351015323029E-2</v>
+      </c>
+      <c r="B158">
+        <v>0.83783240962033401</v>
+      </c>
+      <c r="C158">
+        <v>0.44390107090276337</v>
+      </c>
+      <c r="D158">
+        <v>0.96076824492338486</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>6.564039604379554E-2</v>
+      </c>
+      <c r="B159">
+        <v>0.81693338203413779</v>
+      </c>
+      <c r="C159">
+        <v>0.58016054171757703</v>
+      </c>
+      <c r="D159">
+        <v>0.96717980197810205</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>8.01318631351597E-2</v>
+      </c>
+      <c r="B160">
+        <v>0.83291298150847226</v>
+      </c>
+      <c r="C160">
+        <v>0.44676296011657424</v>
+      </c>
+      <c r="D160">
+        <v>0.95993406843242013</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>6.2120344856657304E-5</v>
+      </c>
+      <c r="B161">
+        <v>0.49996893789798319</v>
+      </c>
+      <c r="C161">
+        <v>0.99981365054224181</v>
+      </c>
+      <c r="D161">
+        <v>0.99996893982757162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>7.4402289301209262E-2</v>
+      </c>
+      <c r="B162">
+        <v>0.80396091280282611</v>
+      </c>
+      <c r="C162">
+        <v>0.55160932736971502</v>
+      </c>
+      <c r="D162">
+        <v>0.96279885534939535</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>7.4725164650790085E-2</v>
+      </c>
+      <c r="B163">
+        <v>0.8412509225383783</v>
+      </c>
+      <c r="C163">
+        <v>0.46027509107078468</v>
+      </c>
+      <c r="D163">
+        <v>0.96263741767460487</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>7.0482691519476587E-4</v>
+      </c>
+      <c r="B164">
+        <v>0.70094587156589316</v>
+      </c>
+      <c r="C164">
+        <v>0.99693881587789612</v>
+      </c>
+      <c r="D164">
+        <v>0.9996475865424026</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>9.1983229576927963E-2</v>
+      </c>
+      <c r="B165">
+        <v>0.81189833088639241</v>
+      </c>
+      <c r="C165">
+        <v>0.4274736096693208</v>
+      </c>
+      <c r="D165">
+        <v>0.95400838521153597</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>2.2684538454473831E-2</v>
+      </c>
+      <c r="B166">
+        <v>0.81287232395597808</v>
+      </c>
+      <c r="C166">
+        <v>0.85660618625806861</v>
+      </c>
+      <c r="D166">
+        <v>0.98865773077276309</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>9.2685394366257556E-2</v>
+      </c>
+      <c r="B167">
+        <v>0.80384543337925707</v>
+      </c>
+      <c r="C167">
+        <v>0.44339382386518855</v>
+      </c>
+      <c r="D167">
+        <v>0.95365730281687133</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1.837483749753088E-5</v>
+      </c>
+      <c r="B168">
+        <v>-9.187503158204209E-6</v>
+      </c>
+      <c r="C168">
+        <v>0.99996325083145687</v>
+      </c>
+      <c r="D168">
+        <v>0.99999081258125122</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>0.10715669629481674</v>
+      </c>
+      <c r="B169">
+        <v>0.78561211399984265</v>
+      </c>
+      <c r="C169">
+        <v>0.40449966339873217</v>
+      </c>
+      <c r="D169">
+        <v>0.94642165185259164</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>9.1063844909998762E-2</v>
+      </c>
+      <c r="B170">
+        <v>0.81212298210373013</v>
+      </c>
+      <c r="C170">
+        <v>0.43266129203053844</v>
+      </c>
+      <c r="D170">
+        <v>0.95446807754500074</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>9.289903683645534E-2</v>
+      </c>
+      <c r="B171">
+        <v>0.80666510698058747</v>
+      </c>
+      <c r="C171">
+        <v>0.43522469786386847</v>
+      </c>
+      <c r="D171">
+        <v>0.95355048158177225</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>8.8069507772950861E-2</v>
+      </c>
+      <c r="B172">
+        <v>0.80389861191713119</v>
+      </c>
+      <c r="C172">
+        <v>0.47066221251078244</v>
+      </c>
+      <c r="D172">
+        <v>0.95596524611352474</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>8.2812217603470087E-2</v>
+      </c>
+      <c r="B173">
+        <v>0.82347157067800314</v>
+      </c>
+      <c r="C173">
+        <v>0.4549467195147136</v>
+      </c>
+      <c r="D173">
+        <v>0.95859389119826488</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>2.4010711710783811E-2</v>
+      </c>
+      <c r="B174">
+        <v>0.7691653172462769</v>
+      </c>
+      <c r="C174">
+        <v>0.87254888813340392</v>
+      </c>
+      <c r="D174">
+        <v>0.98799464414460814</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>3.9892037786774623E-2</v>
+      </c>
+      <c r="B175">
+        <v>0.83016778597728846</v>
+      </c>
+      <c r="C175">
+        <v>0.72681054565094771</v>
+      </c>
+      <c r="D175">
+        <v>0.98005398110661268</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>0.10092576620090851</v>
+      </c>
+      <c r="B176">
+        <v>0.79820716694286353</v>
+      </c>
+      <c r="C176">
+        <v>0.4093410275975774</v>
+      </c>
+      <c r="D176">
+        <v>0.94953711689954567</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>0.10315304892158177</v>
+      </c>
+      <c r="B177">
+        <v>0.79287997906088936</v>
+      </c>
+      <c r="C177">
+        <v>0.4094703045546696</v>
+      </c>
+      <c r="D177">
+        <v>0.94842347553920914</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>9.9009654313298029E-2</v>
+      </c>
+      <c r="B178">
+        <v>0.80172087456416319</v>
+      </c>
+      <c r="C178">
+        <v>0.41175419492380649</v>
+      </c>
+      <c r="D178">
+        <v>0.95049517284335105</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>7.8594251898376197E-2</v>
+      </c>
+      <c r="B179">
+        <v>0.82797970128763843</v>
+      </c>
+      <c r="C179">
+        <v>0.47070037875853377</v>
+      </c>
+      <c r="D179">
+        <v>0.96070287405081189</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>3.0830344173361399E-4</v>
+      </c>
+      <c r="B180">
+        <v>0.63364860026261927</v>
+      </c>
+      <c r="C180">
+        <v>0.9988502404593318</v>
+      </c>
+      <c r="D180">
+        <v>0.99984584827913325</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>6.2120344856657304E-5</v>
+      </c>
+      <c r="B181">
+        <v>0.49996893789798319</v>
+      </c>
+      <c r="C181">
+        <v>0.99981365054224181</v>
+      </c>
+      <c r="D181">
+        <v>0.99996893982757162</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>7.4402289301209262E-2</v>
+      </c>
+      <c r="B182">
+        <v>0.80396091280282611</v>
+      </c>
+      <c r="C182">
+        <v>0.55160932736971502</v>
+      </c>
+      <c r="D182">
+        <v>0.96279885534939535</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>7.4725164650790085E-2</v>
+      </c>
+      <c r="B183">
+        <v>0.8412509225383783</v>
+      </c>
+      <c r="C183">
+        <v>0.46027509107078468</v>
+      </c>
+      <c r="D183">
+        <v>0.96263741767460487</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>7.0482691519476587E-4</v>
+      </c>
+      <c r="B184">
+        <v>0.70094587156589316</v>
+      </c>
+      <c r="C184">
+        <v>0.99693881587789612</v>
+      </c>
+      <c r="D184">
+        <v>0.9996475865424026</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>9.1983229576927963E-2</v>
+      </c>
+      <c r="B185">
+        <v>0.81189833088639241</v>
+      </c>
+      <c r="C185">
+        <v>0.4274736096693208</v>
+      </c>
+      <c r="D185">
+        <v>0.95400838521153597</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>2.2684538454473831E-2</v>
+      </c>
+      <c r="B186">
+        <v>0.81287232395597808</v>
+      </c>
+      <c r="C186">
+        <v>0.85660618625806861</v>
+      </c>
+      <c r="D186">
+        <v>0.98865773077276309</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>9.2685394366257556E-2</v>
+      </c>
+      <c r="B187">
+        <v>0.80384543337925707</v>
+      </c>
+      <c r="C187">
+        <v>0.44339382386518855</v>
+      </c>
+      <c r="D187">
+        <v>0.95365730281687133</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>1.837483749753088E-5</v>
+      </c>
+      <c r="B188">
+        <v>-9.187503158204209E-6</v>
+      </c>
+      <c r="C188">
+        <v>0.99996325083145687</v>
+      </c>
+      <c r="D188">
+        <v>0.99999081258125122</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>0.10715669629481674</v>
+      </c>
+      <c r="B189">
+        <v>0.78561211399984265</v>
+      </c>
+      <c r="C189">
+        <v>0.40449966339873217</v>
+      </c>
+      <c r="D189">
+        <v>0.94642165185259164</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>9.1063844909998762E-2</v>
+      </c>
+      <c r="B190">
+        <v>0.81212298210373013</v>
+      </c>
+      <c r="C190">
+        <v>0.43266129203053844</v>
+      </c>
+      <c r="D190">
+        <v>0.95446807754500074</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>9.289903683645534E-2</v>
+      </c>
+      <c r="B191">
+        <v>0.80666510698058747</v>
+      </c>
+      <c r="C191">
+        <v>0.43522469786386847</v>
+      </c>
+      <c r="D191">
+        <v>0.95355048158177225</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>8.8069507772950861E-2</v>
+      </c>
+      <c r="B192">
+        <v>0.80389861191713119</v>
+      </c>
+      <c r="C192">
+        <v>0.47066221251078244</v>
+      </c>
+      <c r="D192">
+        <v>0.95596524611352474</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>8.2812217603470087E-2</v>
+      </c>
+      <c r="B193">
+        <v>0.82347157067800314</v>
+      </c>
+      <c r="C193">
+        <v>0.4549467195147136</v>
+      </c>
+      <c r="D193">
+        <v>0.95859389119826488</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>2.4010711710783811E-2</v>
+      </c>
+      <c r="B194">
+        <v>0.7691653172462769</v>
+      </c>
+      <c r="C194">
+        <v>0.87254888813340392</v>
+      </c>
+      <c r="D194">
+        <v>0.98799464414460814</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>3.9892037786774623E-2</v>
+      </c>
+      <c r="B195">
+        <v>0.83016778597728846</v>
+      </c>
+      <c r="C195">
+        <v>0.72681054565094771</v>
+      </c>
+      <c r="D195">
+        <v>0.98005398110661268</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>0.10092576620090851</v>
+      </c>
+      <c r="B196">
+        <v>0.79820716694286353</v>
+      </c>
+      <c r="C196">
+        <v>0.4093410275975774</v>
+      </c>
+      <c r="D196">
+        <v>0.94953711689954567</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>0.10315304892158177</v>
+      </c>
+      <c r="B197">
+        <v>0.79287997906088936</v>
+      </c>
+      <c r="C197">
+        <v>0.4094703045546696</v>
+      </c>
+      <c r="D197">
+        <v>0.94842347553920914</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>9.9009654313298029E-2</v>
+      </c>
+      <c r="B198">
+        <v>0.80172087456416319</v>
+      </c>
+      <c r="C198">
+        <v>0.41175419492380649</v>
+      </c>
+      <c r="D198">
+        <v>0.95049517284335105</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>7.8594251898376197E-2</v>
+      </c>
+      <c r="B199">
+        <v>0.82797970128763843</v>
+      </c>
+      <c r="C199">
+        <v>0.47070037875853377</v>
+      </c>
+      <c r="D199">
+        <v>0.96070287405081189</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>3.0830344173361399E-4</v>
+      </c>
+      <c r="B200">
+        <v>0.63364860026261927</v>
+      </c>
+      <c r="C200">
+        <v>0.9988502404593318</v>
+      </c>
+      <c r="D200">
+        <v>0.99984584827913325</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>3.7188089286497392E-3</v>
+      </c>
+      <c r="B201">
+        <v>0.67149661773286651</v>
+      </c>
+      <c r="C201">
+        <v>0.9849753610752966</v>
+      </c>
+      <c r="D201">
+        <v>0.99814059553567513</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>3.1049376147640056E-3</v>
+      </c>
+      <c r="B202">
+        <v>0.72838668123302719</v>
+      </c>
+      <c r="C202">
+        <v>0.98547325407232966</v>
+      </c>
+      <c r="D202">
+        <v>0.99844753119261809</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>7.3671646705354577E-3</v>
+      </c>
+      <c r="B203">
+        <v>0.69605955350928306</v>
+      </c>
+      <c r="C203">
+        <v>0.96848603128373201</v>
+      </c>
+      <c r="D203">
+        <v>0.99631641766473222</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>6.8690382646934695E-3</v>
+      </c>
+      <c r="B204">
+        <v>0.72645607989288941</v>
+      </c>
+      <c r="C204">
+        <v>0.9680678593289771</v>
+      </c>
+      <c r="D204">
+        <v>0.99656548086765329</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>6.715915295757352E-3</v>
+      </c>
+      <c r="B205">
+        <v>0.68644591620162165</v>
+      </c>
+      <c r="C205">
+        <v>0.97191494814864932</v>
+      </c>
+      <c r="D205">
+        <v>0.99664204235212139</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>1.2004980067155452E-2</v>
+      </c>
+      <c r="B206">
+        <v>0.7116520005760445</v>
+      </c>
+      <c r="C206">
+        <v>0.94651688579317594</v>
+      </c>
+      <c r="D206">
+        <v>0.99399750996642222</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1.4315297538178598E-2</v>
+      </c>
+      <c r="B207">
+        <v>0.7256685860042883</v>
+      </c>
+      <c r="C207">
+        <v>0.93370760972332578</v>
+      </c>
+      <c r="D207">
+        <v>0.9928423512309108</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1.8499488426345707E-2</v>
+      </c>
+      <c r="B208">
+        <v>0.75317598691804788</v>
+      </c>
+      <c r="C208">
+        <v>0.90689398882659766</v>
+      </c>
+      <c r="D208">
+        <v>0.99075025578682707</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>4.4908723424952168E-2</v>
+      </c>
+      <c r="B209">
+        <v>0.85680883079221215</v>
+      </c>
+      <c r="C209">
+        <v>0.64348124991308764</v>
+      </c>
+      <c r="D209">
+        <v>0.97754563828752405</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>1.2779338533057634E-2</v>
+      </c>
+      <c r="B210">
+        <v>0.81666167894535324</v>
+      </c>
+      <c r="C210">
+        <v>0.91768046969554029</v>
+      </c>
+      <c r="D210">
+        <v>0.99361033073347127</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>4.5638739137191155E-3</v>
+      </c>
+      <c r="B211">
+        <v>0.71383631327014641</v>
+      </c>
+      <c r="C211">
+        <v>0.97950864516959446</v>
+      </c>
+      <c r="D211">
+        <v>0.99771806304314059</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>3.775546910187931E-3</v>
+      </c>
+      <c r="B212">
+        <v>0.66423762152259969</v>
+      </c>
+      <c r="C212">
+        <v>0.98499414614751502</v>
+      </c>
+      <c r="D212">
+        <v>0.99811222654490606</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>6.2083856046835126E-2</v>
+      </c>
+      <c r="B213">
+        <v>0.86309933060888611</v>
+      </c>
+      <c r="C213">
+        <v>0.4882769707790966</v>
+      </c>
+      <c r="D213">
+        <v>0.96895807197658235</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>4.2696596287125086E-3</v>
+      </c>
+      <c r="B214">
+        <v>0.68008740395800382</v>
+      </c>
+      <c r="C214">
+        <v>0.98240274350807566</v>
+      </c>
+      <c r="D214">
+        <v>0.9978651701856438</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>1.6116864560839217E-2</v>
+      </c>
+      <c r="B215">
+        <v>0.74929821008459474</v>
+      </c>
+      <c r="C215">
+        <v>0.9198684007337542</v>
+      </c>
+      <c r="D215">
+        <v>0.99194156771958042</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>2.6551467340393525E-2</v>
+      </c>
+      <c r="B216">
+        <v>0.76922886440295324</v>
+      </c>
+      <c r="C216">
+        <v>0.85919537901294196</v>
+      </c>
+      <c r="D216">
+        <v>0.98672426632980326</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>8.9009298690172537E-4</v>
+      </c>
+      <c r="B217">
+        <v>0.79402773362916979</v>
+      </c>
+      <c r="C217">
+        <v>0.9947919912886084</v>
+      </c>
+      <c r="D217">
+        <v>0.9995549535065491</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>7.1961345128146092E-3</v>
+      </c>
+      <c r="B218">
+        <v>0.7570932049812662</v>
+      </c>
+      <c r="C218">
+        <v>0.96323061127994225</v>
+      </c>
+      <c r="D218">
+        <v>0.99640193274359279</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>9.8249671929004634E-3</v>
+      </c>
+      <c r="B219">
+        <v>0.68312067185629177</v>
+      </c>
+      <c r="C219">
+        <v>0.95927377312119688</v>
+      </c>
+      <c r="D219">
+        <v>0.99508751640354987</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>8.2696881509166393E-3</v>
+      </c>
+      <c r="B220">
+        <v>0.65887352095481855</v>
+      </c>
+      <c r="C220">
+        <v>0.96755667633677023</v>
+      </c>
+      <c r="D220">
+        <v>0.99586515592454172</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>1.1969588379155184E-3</v>
+      </c>
+      <c r="B221">
+        <v>0.59345077701069093</v>
+      </c>
+      <c r="C221">
+        <v>0.99586813673342645</v>
+      </c>
+      <c r="D221">
+        <v>0.99940152058104215</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>1.6050201932760938E-2</v>
+      </c>
+      <c r="B222">
+        <v>0.78210375739230942</v>
+      </c>
+      <c r="C222">
+        <v>0.91054767293068928</v>
+      </c>
+      <c r="D222">
+        <v>0.99197489903361957</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>6.2514653852246915E-2</v>
+      </c>
+      <c r="B223">
+        <v>0.84686912016729032</v>
+      </c>
+      <c r="C223">
+        <v>0.53315109596186383</v>
+      </c>
+      <c r="D223">
+        <v>0.96874267307387663</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>2.1200151170797113E-2</v>
+      </c>
+      <c r="B224">
+        <v>0.71667915538399674</v>
+      </c>
+      <c r="C224">
+        <v>0.9044221072751697</v>
+      </c>
+      <c r="D224">
+        <v>0.98939992441460145</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>3.1477977040140232E-3</v>
+      </c>
+      <c r="B225">
+        <v>0.57661890827914752</v>
+      </c>
+      <c r="C225">
+        <v>0.98942730517403987</v>
+      </c>
+      <c r="D225">
+        <v>0.99842610114799291</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>3.8295510791798534E-2</v>
+      </c>
+      <c r="B226">
+        <v>0.74487930914757683</v>
+      </c>
+      <c r="C226">
+        <v>0.81314062895371686</v>
+      </c>
+      <c r="D226">
+        <v>0.98085224460410081</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>3.6131736382979576E-2</v>
+      </c>
+      <c r="B227">
+        <v>0.77457618669639838</v>
+      </c>
+      <c r="C227">
+        <v>0.80489093029017555</v>
+      </c>
+      <c r="D227">
+        <v>0.98193413180851008</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>7.1330177884889837E-2</v>
+      </c>
+      <c r="B228">
+        <v>0.85249247152809848</v>
+      </c>
+      <c r="C228">
+        <v>0.45018819239900387</v>
+      </c>
+      <c r="D228">
+        <v>0.96433491105755509</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>2.3374365978082651E-2</v>
+      </c>
+      <c r="B229">
+        <v>0.76194639899161176</v>
+      </c>
+      <c r="C229">
+        <v>0.87898283779027186</v>
+      </c>
+      <c r="D229">
+        <v>0.98831281701095874</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>4.9458816424492007E-3</v>
+      </c>
+      <c r="B230">
+        <v>0.6181380001663519</v>
+      </c>
+      <c r="C230">
+        <v>0.98212725534737366</v>
+      </c>
+      <c r="D230">
+        <v>0.99752705917877549</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>1.0572119258662369E-3</v>
+      </c>
+      <c r="B231">
+        <v>0.60333542201818091</v>
+      </c>
+      <c r="C231">
+        <v>0.99627865158780604</v>
+      </c>
+      <c r="D231">
+        <v>0.99947139403706675</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>5.4087788641564386E-3</v>
+      </c>
+      <c r="B232">
+        <v>0.64920933561640126</v>
+      </c>
+      <c r="C232">
+        <v>0.97920185952432115</v>
+      </c>
+      <c r="D232">
+        <v>0.99729561056792193</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>2.2429675764289486E-3</v>
+      </c>
+      <c r="B233">
+        <v>0.51009187449427251</v>
+      </c>
+      <c r="C233">
+        <v>0.99318376861594115</v>
+      </c>
+      <c r="D233">
+        <v>0.99887851621178547</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>7.8248206937806264E-3</v>
+      </c>
+      <c r="B234">
+        <v>0.59224754300090432</v>
+      </c>
+      <c r="C234">
+        <v>0.97304639681581195</v>
+      </c>
+      <c r="D234">
+        <v>0.99608758965310962</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>4.4905933042524151E-3</v>
+      </c>
+      <c r="B235">
+        <v>0.47238737343713938</v>
+      </c>
+      <c r="C235">
+        <v>0.98701845463863191</v>
+      </c>
+      <c r="D235">
+        <v>0.99775470334787375</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1.9729932047792857E-3</v>
+      </c>
+      <c r="B236">
+        <v>0.55526919309347156</v>
+      </c>
+      <c r="C236">
+        <v>0.99359574535549611</v>
+      </c>
+      <c r="D236">
+        <v>0.99901350339761041</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>8.5864323896983749E-4</v>
+      </c>
+      <c r="B237">
+        <v>0.69212980230816268</v>
+      </c>
+      <c r="C237">
+        <v>0.99636062749824139</v>
+      </c>
+      <c r="D237">
+        <v>0.99957067838051517</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>5.8227835327241441E-3</v>
+      </c>
+      <c r="B238">
+        <v>0.56455138957214601</v>
+      </c>
+      <c r="C238">
+        <v>0.98083970620580463</v>
+      </c>
+      <c r="D238">
+        <v>0.99708860823363799</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>2.8312849948938269E-3</v>
+      </c>
+      <c r="B239">
+        <v>0.549953809580213</v>
+      </c>
+      <c r="C239">
+        <v>0.99088611926793813</v>
+      </c>
+      <c r="D239">
+        <v>0.99858435750255314</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>5.4648126783654136E-3</v>
+      </c>
+      <c r="B240">
+        <v>0.70277557207691377</v>
+      </c>
+      <c r="C240">
+        <v>0.97617897392747599</v>
+      </c>
+      <c r="D240">
+        <v>0.9972675936608173</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>6.4869682253869521E-2</v>
+      </c>
+      <c r="B241">
+        <v>0.79603661223812328</v>
+      </c>
+      <c r="C241">
+        <v>0.62129270878502241</v>
+      </c>
+      <c r="D241">
+        <v>0.96756515887306527</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>7.602286231679023E-2</v>
+      </c>
+      <c r="B242">
+        <v>0.79254030292121647</v>
+      </c>
+      <c r="C242">
+        <v>0.56331022988387003</v>
+      </c>
+      <c r="D242">
+        <v>0.96198856884160489</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>3.9508203587570304E-2</v>
+      </c>
+      <c r="B243">
+        <v>0.77879439251490279</v>
+      </c>
+      <c r="C243">
+        <v>0.78344872957705702</v>
+      </c>
+      <c r="D243">
+        <v>0.98024589820621488</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>4.5297215951843495E-2</v>
+      </c>
+      <c r="B244">
+        <v>0.80172721969325145</v>
+      </c>
+      <c r="C244">
+        <v>0.7282956488334873</v>
+      </c>
+      <c r="D244">
+        <v>0.97735139202407817</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>7.4738342609986727E-2</v>
+      </c>
+      <c r="B245">
+        <v>0.80151032910145936</v>
+      </c>
+      <c r="C245">
+        <v>0.55431262059304276</v>
+      </c>
+      <c r="D245">
+        <v>0.9626308286950066</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>7.6934935047844641E-2</v>
+      </c>
+      <c r="B246">
+        <v>0.79141029664965579</v>
+      </c>
+      <c r="C246">
+        <v>0.5601502404077725</v>
+      </c>
+      <c r="D246">
+        <v>0.96153253247607773</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>7.1054194314631697E-2</v>
+      </c>
+      <c r="B247">
+        <v>0.80576436195404633</v>
+      </c>
+      <c r="C247">
+        <v>0.56818019237839701</v>
+      </c>
+      <c r="D247">
+        <v>0.96447290284268417</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>6.2940999731170039E-2</v>
+      </c>
+      <c r="B248">
+        <v>0.79865259365149677</v>
+      </c>
+      <c r="C248">
+        <v>0.62842187089525314</v>
+      </c>
+      <c r="D248">
+        <v>0.96852950013441497</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>5.669096087794253E-2</v>
+      </c>
+      <c r="B249">
+        <v>0.80813535345265308</v>
+      </c>
+      <c r="C249">
+        <v>0.65105072636339234</v>
+      </c>
+      <c r="D249">
+        <v>0.97165451956102866</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>6.6369964623987227E-2</v>
+      </c>
+      <c r="B250">
+        <v>0.82302842908616514</v>
+      </c>
+      <c r="C250">
+        <v>0.56300322011803561</v>
+      </c>
+      <c r="D250">
+        <v>0.96681501768800637</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>8.4646481313422978E-2</v>
+      </c>
+      <c r="B251">
+        <v>0.80394929417333294</v>
+      </c>
+      <c r="C251">
+        <v>0.49076086104009092</v>
+      </c>
+      <c r="D251">
+        <v>0.95767675934328855</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>8.6811145913631205E-2</v>
+      </c>
+      <c r="B252">
+        <v>0.79831550043346444</v>
+      </c>
+      <c r="C252">
+        <v>0.49029505755804459</v>
+      </c>
+      <c r="D252">
+        <v>0.95659442704318431</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>5.9489001229676187E-2</v>
+      </c>
+      <c r="B253">
+        <v>0.8024711058531202</v>
+      </c>
+      <c r="C253">
+        <v>0.64288391027443781</v>
+      </c>
+      <c r="D253">
+        <v>0.97025549938516187</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>6.5906112364378558E-2</v>
+      </c>
+      <c r="B254">
+        <v>0.78280720089420808</v>
+      </c>
+      <c r="C254">
+        <v>0.63499237707128831</v>
+      </c>
+      <c r="D254">
+        <v>0.96704694381781064</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>7.517602084181646E-2</v>
+      </c>
+      <c r="B255">
+        <v>0.79153735660235169</v>
+      </c>
+      <c r="C255">
+        <v>0.56985451921397468</v>
+      </c>
+      <c r="D255">
+        <v>0.96241198957909169</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>7.9598119642363352E-2</v>
+      </c>
+      <c r="B256">
+        <v>0.79967816944849957</v>
+      </c>
+      <c r="C256">
+        <v>0.52938755040078278</v>
+      </c>
+      <c r="D256">
+        <v>0.9602009401788183</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>4.8105760770499509E-2</v>
+      </c>
+      <c r="B257">
+        <v>0.79582569648565149</v>
+      </c>
+      <c r="C257">
+        <v>0.71859764174881036</v>
+      </c>
+      <c r="D257">
+        <v>0.97594711961475022</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>2.0872260966707388E-2</v>
+      </c>
+      <c r="B258">
+        <v>0.82884705539055525</v>
+      </c>
+      <c r="C258">
+        <v>0.85761246030834359</v>
+      </c>
+      <c r="D258">
+        <v>0.98956386951664632</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>5.9419897628993357E-2</v>
+      </c>
+      <c r="B259">
+        <v>0.81109207064972055</v>
+      </c>
+      <c r="C259">
+        <v>0.62956662773262662</v>
+      </c>
+      <c r="D259">
+        <v>0.97029005118550327</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>3.3019469196820472E-2</v>
+      </c>
+      <c r="B260">
+        <v>0.83104435128802423</v>
+      </c>
+      <c r="C260">
+        <v>0.772638054184417</v>
+      </c>
+      <c r="D260">
+        <v>0.98349026540158979</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>7.9205590982892905E-3</v>
+      </c>
+      <c r="B261">
+        <v>0.71830596846104944</v>
+      </c>
+      <c r="C261">
+        <v>0.96402463001491057</v>
+      </c>
+      <c r="D261">
+        <v>0.99603972045085543</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>1.4902770607468594E-2</v>
+      </c>
+      <c r="B262">
+        <v>0.74084921659661807</v>
+      </c>
+      <c r="C262">
+        <v>0.92781332642907033</v>
+      </c>
+      <c r="D262">
+        <v>0.99254861469626565</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>1.7196798686640674E-2</v>
+      </c>
+      <c r="B263">
+        <v>0.71921950033558368</v>
+      </c>
+      <c r="C263">
+        <v>0.92185252872890733</v>
+      </c>
+      <c r="D263">
+        <v>0.9914016006566797</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>1.2273966825303255E-2</v>
+      </c>
+      <c r="B264">
+        <v>0.72153577437330962</v>
+      </c>
+      <c r="C264">
+        <v>0.9437994118391575</v>
+      </c>
+      <c r="D264">
+        <v>0.99386301658734832</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>1.1777465811236919E-2</v>
+      </c>
+      <c r="B265">
+        <v>0.68420767917847447</v>
+      </c>
+      <c r="C265">
+        <v>0.95106627131118038</v>
+      </c>
+      <c r="D265">
+        <v>0.99411126709438158</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>1.196502910802771E-3</v>
+      </c>
+      <c r="B266">
+        <v>0.58273422167131494</v>
+      </c>
+      <c r="C266">
+        <v>0.99593744478582691</v>
+      </c>
+      <c r="D266">
+        <v>0.99940174854459862</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>1.4208451297970289E-2</v>
+      </c>
+      <c r="B267">
+        <v>0.71120634245991377</v>
+      </c>
+      <c r="C267">
+        <v>0.93679506542084445</v>
+      </c>
+      <c r="D267">
+        <v>0.99289577435101484</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>0</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>9.6780827718029051E-6</v>
+      </c>
+      <c r="B272">
+        <v>0.33332849425682265</v>
+      </c>
+      <c r="C272">
+        <v>0.99997580499210925</v>
+      </c>
+      <c r="D272">
+        <v>0.99999516095861407</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>6.3480606609772113E-3</v>
+      </c>
+      <c r="B273">
+        <v>0.75068573608554234</v>
+      </c>
+      <c r="C273">
+        <v>0.96823024468755214</v>
+      </c>
+      <c r="D273">
+        <v>0.99682596966951142</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>4.9312657006415567E-3</v>
+      </c>
+      <c r="B274">
+        <v>0.72985684267553841</v>
+      </c>
+      <c r="C274">
+        <v>0.97683886398173347</v>
+      </c>
+      <c r="D274">
+        <v>0.99753436714967925</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>4.8374347251513034E-3</v>
+      </c>
+      <c r="B277">
+        <v>0.69235770195900359</v>
+      </c>
+      <c r="C277">
+        <v>0.97946248361253985</v>
+      </c>
+      <c r="D277">
+        <v>0.99758128263742429</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>0</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>6.9914180343628196E-5</v>
+      </c>
+      <c r="B280">
+        <v>-3.4958312212686381E-5</v>
+      </c>
+      <c r="C280">
+        <v>0.99986017897130164</v>
+      </c>
+      <c r="D280">
+        <v>0.99996504290982813</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>7.9205590982892905E-3</v>
+      </c>
+      <c r="B281">
+        <v>0.71830596846104944</v>
+      </c>
+      <c r="C281">
+        <v>0.96402463001491057</v>
+      </c>
+      <c r="D281">
+        <v>0.99603972045085543</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>1.4902770607468594E-2</v>
+      </c>
+      <c r="B282">
+        <v>0.74084921659661807</v>
+      </c>
+      <c r="C282">
+        <v>0.92781332642907033</v>
+      </c>
+      <c r="D282">
+        <v>0.99254861469626565</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>1.7196798686640674E-2</v>
+      </c>
+      <c r="B283">
+        <v>0.71921950033558368</v>
+      </c>
+      <c r="C283">
+        <v>0.92185252872890733</v>
+      </c>
+      <c r="D283">
+        <v>0.9914016006566797</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>1.2273966825303255E-2</v>
+      </c>
+      <c r="B284">
+        <v>0.72153577437330962</v>
+      </c>
+      <c r="C284">
+        <v>0.9437994118391575</v>
+      </c>
+      <c r="D284">
+        <v>0.99386301658734832</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>1.1777465811236919E-2</v>
+      </c>
+      <c r="B285">
+        <v>0.68420767917847447</v>
+      </c>
+      <c r="C285">
+        <v>0.95106627131118038</v>
+      </c>
+      <c r="D285">
+        <v>0.99411126709438158</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>1.196502910802771E-3</v>
+      </c>
+      <c r="B286">
+        <v>0.58273422167131494</v>
+      </c>
+      <c r="C286">
+        <v>0.99593744478582691</v>
+      </c>
+      <c r="D286">
+        <v>0.99940174854459862</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>1.4208451297970289E-2</v>
+      </c>
+      <c r="B287">
+        <v>0.71120634245991377</v>
+      </c>
+      <c r="C287">
+        <v>0.93679506542084445</v>
+      </c>
+      <c r="D287">
+        <v>0.99289577435101484</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>0</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>0</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>9.6780827718029051E-6</v>
+      </c>
+      <c r="B292">
+        <v>0.33332849425682265</v>
+      </c>
+      <c r="C292">
+        <v>0.99997580499210925</v>
+      </c>
+      <c r="D292">
+        <v>0.99999516095861407</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>6.3480606609772113E-3</v>
+      </c>
+      <c r="B293">
+        <v>0.75068573608554234</v>
+      </c>
+      <c r="C293">
+        <v>0.96823024468755214</v>
+      </c>
+      <c r="D293">
+        <v>0.99682596966951142</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>4.9312657006415567E-3</v>
+      </c>
+      <c r="B294">
+        <v>0.72985684267553841</v>
+      </c>
+      <c r="C294">
+        <v>0.97683886398173347</v>
+      </c>
+      <c r="D294">
+        <v>0.99753436714967925</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>0</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>0</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>4.8374347251513034E-3</v>
+      </c>
+      <c r="B297">
+        <v>0.69235770195900359</v>
+      </c>
+      <c r="C297">
+        <v>0.97946248361253985</v>
+      </c>
+      <c r="D297">
+        <v>0.99758128263742429</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>6.9914180343628196E-5</v>
+      </c>
+      <c r="B300">
+        <v>-3.4958312212686381E-5</v>
+      </c>
+      <c r="C300">
+        <v>0.99986017897130164</v>
+      </c>
+      <c r="D300">
+        <v>0.99996504290982813</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>4.9485811489986852E-5</v>
+      </c>
+      <c r="B301">
+        <v>0.72411318590927221</v>
+      </c>
+      <c r="C301">
+        <v>0.99977114666038491</v>
+      </c>
+      <c r="D301">
+        <v>0.99997525709425505</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>1.8734266143668404E-5</v>
+      </c>
+      <c r="B302">
+        <v>-9.3672208158380998E-6</v>
+      </c>
+      <c r="C302">
+        <v>0.99996253199417184</v>
+      </c>
+      <c r="D302">
+        <v>0.99999063286692824</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>0</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>5.395301010190771E-5</v>
+      </c>
+      <c r="B304">
+        <v>0.86448318238670974</v>
+      </c>
+      <c r="C304">
+        <v>0.99956210600337581</v>
+      </c>
+      <c r="D304">
+        <v>0.9999730234949491</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>2.8157513128440496E-5</v>
+      </c>
+      <c r="B305">
+        <v>0.37498592092629035</v>
+      </c>
+      <c r="C305">
+        <v>0.99992679227355385</v>
+      </c>
+      <c r="D305">
+        <v>0.99998592124343577</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>2.2645632648208588E-5</v>
+      </c>
+      <c r="B306">
+        <v>-1.1322944531725478E-5</v>
+      </c>
+      <c r="C306">
+        <v>0.99995470950394061</v>
+      </c>
+      <c r="D306">
+        <v>0.9999886771836759</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>4.332415402819861E-5</v>
+      </c>
+      <c r="B307">
+        <v>0.74191381997547434</v>
+      </c>
+      <c r="C307">
+        <v>0.99978881071812631</v>
+      </c>
+      <c r="D307">
+        <v>0.99997833792298596</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>0</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>0</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>0</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>0</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>0</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>2.8169569540807847E-5</v>
+      </c>
+      <c r="B313">
+        <v>0.72626127487593839</v>
+      </c>
+      <c r="C313">
+        <v>0.99987605952804537</v>
+      </c>
+      <c r="D313">
+        <v>0.9999859152152295</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>0</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>6.5883057572808262E-5</v>
+      </c>
+      <c r="B315">
+        <v>0.77996705353800078</v>
+      </c>
+      <c r="C315">
+        <v>0.99963469768016611</v>
+      </c>
+      <c r="D315">
+        <v>0.99996705847121359</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>0</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>0</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>7.3849999289903853E-5</v>
+      </c>
+      <c r="B318">
+        <v>0.76359943286735166</v>
+      </c>
+      <c r="C318">
+        <v>0.99961376195994145</v>
+      </c>
+      <c r="D318">
+        <v>0.99996307500035508</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>0</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>3.2074610478528513E-5</v>
+      </c>
+      <c r="B320">
+        <v>0.83568979048938974</v>
+      </c>
+      <c r="C320">
+        <v>0.999782898077889</v>
+      </c>
+      <c r="D320">
+        <v>0.99998396269476075</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>0</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>5.1800051800051802E-5</v>
+      </c>
+      <c r="B322">
+        <v>0.62497409818514604</v>
+      </c>
+      <c r="C322">
+        <v>0.99981007870040639</v>
+      </c>
+      <c r="D322">
+        <v>0.99997409997409992</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>4.5986129433709556E-5</v>
+      </c>
+      <c r="B323">
+        <v>0.67997700528303617</v>
+      </c>
+      <c r="C323">
+        <v>0.99981031965661138</v>
+      </c>
+      <c r="D323">
+        <v>0.99997700693528313</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>0</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>0</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>0</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>0</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>0</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>0</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>0</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>0</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>0</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>1.5244367206317265E-5</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>0.99996951173036885</v>
+      </c>
+      <c r="D333">
+        <v>0.99999237781639683</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>0</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>0</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>0</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>0</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>7.5703501827698824E-5</v>
+      </c>
+      <c r="B338">
+        <v>0.81646566983733648</v>
+      </c>
+      <c r="C338">
+        <v>0.99954585922331651</v>
+      </c>
+      <c r="D338">
+        <v>0.99996214824908614</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>0</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>0</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>0</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>0</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>0</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>0</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>0</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>0</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>3.5901969671811122E-5</v>
+      </c>
+      <c r="B347">
+        <v>0.42855347702265872</v>
+      </c>
+      <c r="C347">
+        <v>0.99990127284606067</v>
+      </c>
+      <c r="D347">
+        <v>0.99998204901516408</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>0</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>0</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>7.8251394342032939E-5</v>
+      </c>
+      <c r="B350">
+        <v>0.74022060866802353</v>
+      </c>
+      <c r="C350">
+        <v>0.99962053224188607</v>
+      </c>
+      <c r="D350">
+        <v>0.99996087430282898</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>3.3135702536064663E-5</v>
+      </c>
+      <c r="B351">
+        <v>0.68180161310417453</v>
+      </c>
+      <c r="C351">
+        <v>0.99986273003869053</v>
+      </c>
+      <c r="D351">
+        <v>0.99998343214873198</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>3.1402350465932373E-5</v>
+      </c>
+      <c r="B352">
+        <v>0.59998429820842558</v>
+      </c>
+      <c r="C352">
+        <v>0.99989009584106325</v>
+      </c>
+      <c r="D352">
+        <v>0.99998429882476703</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>7.1339397182093817E-5</v>
+      </c>
+      <c r="B353">
+        <v>0.72218654794266435</v>
+      </c>
+      <c r="C353">
+        <v>0.99967187684099812</v>
+      </c>
+      <c r="D353">
+        <v>0.99996433030140897</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>4.2390731266608559E-5</v>
+      </c>
+      <c r="B354">
+        <v>0.69228649548191712</v>
+      </c>
+      <c r="C354">
+        <v>0.99981985067936041</v>
+      </c>
+      <c r="D354">
+        <v>0.99997880463436672</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>0</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>5.2478114986109699E-5</v>
+      </c>
+      <c r="B356">
+        <v>0.61902137818272029</v>
+      </c>
+      <c r="C356">
+        <v>0.99980977907535507</v>
+      </c>
+      <c r="D356">
+        <v>0.9999737609425069</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>4.6673356514433737E-5</v>
+      </c>
+      <c r="B357">
+        <v>0.68179484342819741</v>
+      </c>
+      <c r="C357">
+        <v>0.99980665188862483</v>
+      </c>
+      <c r="D357">
+        <v>0.99997666332174284</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>5.6099757836045341E-5</v>
+      </c>
+      <c r="B358">
+        <v>0.60866760028415057</v>
+      </c>
+      <c r="C358">
+        <v>0.99980054761845549</v>
+      </c>
+      <c r="D358">
+        <v>0.99997195012108198</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>5.2076383034816315E-5</v>
+      </c>
+      <c r="B359">
+        <v>0.65214787290260101</v>
+      </c>
+      <c r="C359">
+        <v>0.99979821793566925</v>
+      </c>
+      <c r="D359">
+        <v>0.99997396180848253</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>4.9550177296728139E-5</v>
+      </c>
+      <c r="B360">
+        <v>0.70367892654329023</v>
+      </c>
+      <c r="C360">
+        <v>0.99978323441279249</v>
+      </c>
+      <c r="D360">
+        <v>0.99997522491135171</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>2.4488896326257404E-5</v>
+      </c>
+      <c r="B361">
+        <v>-1.224459809147531E-5</v>
+      </c>
+      <c r="C361">
+        <v>0.99995102310690664</v>
+      </c>
+      <c r="D361">
+        <v>0.99998775555183694</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>0</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>0</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>0</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>0</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>0</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>0</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>0</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>0</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>0</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>0</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>0</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>0</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>0</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>0</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>0</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>0</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>0</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>0</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>0</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>2.4488896326257404E-5</v>
+      </c>
+      <c r="B381">
+        <v>-1.224459809147531E-5</v>
+      </c>
+      <c r="C381">
+        <v>0.99995102310690664</v>
+      </c>
+      <c r="D381">
+        <v>0.99998775555183694</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>0</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>0</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>0</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>0</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>0</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>0</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>0</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>0</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>0</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>0</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>0</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>0</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>0</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>0</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>0</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>0</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>0</v>
+      </c>
+      <c r="B398">
+        <v>0</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>0</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>0</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>